--- a/design_analysis/TMAs_202009/TMP_Mech_Var4A/pol_analysis/pol_transmission.xlsx
+++ b/design_analysis/TMAs_202009/TMP_Mech_Var4A/pol_analysis/pol_transmission.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgall\Documents\wilson\code\zemax_tools\design_analysis\TMAs_202009\TMP_Mech_Var4A\pol_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C723D4-4A4D-474E-BE87-715EC3E13D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E9F18-0D37-40E9-9FB3-51ED890B7C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="4900" windowWidth="14820" windowHeight="11030" xr2:uid="{5CCCF14D-CBD8-4EC5-AB7C-E37F488B336F}"/>
+    <workbookView xWindow="8770" yWindow="2570" windowWidth="14820" windowHeight="11030" activeTab="1" xr2:uid="{5CCCF14D-CBD8-4EC5-AB7C-E37F488B336F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="poly" sheetId="1" r:id="rId1"/>
+    <sheet name="polx" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Field</t>
   </si>
@@ -403,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D5427-8630-4C6A-9E33-BFDFBFA8BD8E}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1038,4 +1039,436 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1AE796-2DC7-45F4-BC46-9FE76590141C}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.1771E-4</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(10*LOG10(C2),1)</f>
+        <v>-36.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.008033E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D35" si="0">ROUND(10*LOG10(C3),1)</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.0795000000000005E-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.1196999999999997E-4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.2880999999999998E-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-31.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.7598000000000002E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-32.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.2880999999999998E-4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-31.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.0795000000000005E-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.1196999999999997E-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.541E-4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-30.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.0410000000000004E-4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.8996000000000005E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.4578999999999999E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.1552000000000001E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.4578999999999999E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.8996000000000005E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.0410000000000004E-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.8904999999999997E-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-31.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.8352999999999996E-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.6895999999999998E-4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.8557000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-34.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.8707E-4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.8557000000000001E-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-34.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.6895999999999998E-4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.8352999999999996E-4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.0458000000000002E-4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.4260000000000002E-4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.4489999999999998E-4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.5520000000000002E-4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-35.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.9476000000000001E-4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-37.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.5520000000000002E-4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-35.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.4489999999999998E-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.4260000000000002E-4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <f>AVERAGE(C2:C34)</f>
+        <v>5.4198433333333329E-4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-32.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design_analysis/TMAs_202009/TMP_Mech_Var4A/pol_analysis/pol_transmission.xlsx
+++ b/design_analysis/TMAs_202009/TMP_Mech_Var4A/pol_analysis/pol_transmission.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgall\Documents\wilson\code\zemax_tools\design_analysis\TMAs_202009\TMP_Mech_Var4A\pol_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E9F18-0D37-40E9-9FB3-51ED890B7C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF334D9-D3B0-43F7-A1F4-E72EEAC02593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8770" yWindow="2570" windowWidth="14820" windowHeight="11030" activeTab="1" xr2:uid="{5CCCF14D-CBD8-4EC5-AB7C-E37F488B336F}"/>
+    <workbookView xWindow="8770" yWindow="2570" windowWidth="14820" windowHeight="11030" activeTab="2" xr2:uid="{5CCCF14D-CBD8-4EC5-AB7C-E37F488B336F}"/>
   </bookViews>
   <sheets>
     <sheet name="poly" sheetId="1" r:id="rId1"/>
     <sheet name="polx" sheetId="2" r:id="rId2"/>
+    <sheet name="pol45deg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Field</t>
   </si>
@@ -1045,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1AE796-2DC7-45F4-BC46-9FE76590141C}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,4 +1472,436 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9987048-86DC-4FE0-AAE3-F89C404E7C07}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0233999999999999E-4</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(10*LOG10(C2),1)</f>
+        <v>-36.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.6946999999999998E-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D35" si="0">ROUND(10*LOG10(C3),1)</f>
+        <v>-32.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.1706589999999999E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-29.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.261543E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.7971999999999999E-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-33.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.6622E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.170955E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-29.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.1303870000000001E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.1991000000000001E-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0162000000000004E-4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.041218E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-29.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.7276999999999997E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.1222999999999997E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.8954000000000002E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.6209000000000004E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-30.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.6936000000000001E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-30.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.6984000000000002E-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-34.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.2752000000000003E-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-33.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.0621000000000002E-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.5710000000000003E-4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-31.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.4328000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.2777999999999999E-4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.8447000000000002E-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-32.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6.1618000000000003E-4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-32.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.1707000000000003E-4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.4253000000000002E-4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-34.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.4885000000000003E-4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.1710000000000005E-4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-32.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.7329999999999998E-4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-35.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.8432999999999999E-4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-37.299999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.4314000000000002E-4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-34.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.7713999999999998E-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-34.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.6123999999999999E-4</v>
+      </c>
+      <c r="D34">
+        <f>ROUND(10*LOG10(C34),1)</f>
+        <v>-35.799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <f>AVERAGE(C2:C34)</f>
+        <v>5.762761212121212E-4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-32.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>